--- a/data/trans_dic/P16-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_dic/P16-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>39,78%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>51,08%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>50,64%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>56,72%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>65,12%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>70,29%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>70,88%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>67,85%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>52,3%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>60,52%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>60,62%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>62,97%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,81</t>
+          <t>29,88; 49,14</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,56</t>
+          <t>42,02; 60,72</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,68</t>
+          <t>40,85; 59,05</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,61</t>
+          <t>46,01; 66,49</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,49</t>
+          <t>56,31; 72,97</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,92</t>
+          <t>60,63; 79,39</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,65</t>
+          <t>62,43; 77,97</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,79</t>
+          <t>59,9; 73,93</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,82</t>
+          <t>45,9; 59,23</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,86</t>
+          <t>53,98; 67,24</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,84</t>
+          <t>54,1; 66,77</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>57,1; 69,45</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>41,01%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>52,49%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>50,13%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>55,11%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>55,72%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>68,37%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>67,01%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>63,52%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>48,35%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>60,42%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>58,58%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>59,47%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>37,03; 44,61</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>48,52; 56,99</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>45,63; 54,35</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>50,63; 60,13</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>51,5; 59,53</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>64,1; 72,25</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>62,65; 70,51</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>59,99; 67,02</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>45,43; 51,34</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>57,62; 63,49</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>55,8; 61,8</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>56,4; 62,09</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>41,33%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>50,03%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>48,93%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>44,86%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>59,22%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>70,91%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>65,33%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>62,78%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>50,31%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>60,54%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>57,21%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>53,9%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>37,87; 44,41</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>47,24; 53,56</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>45,86; 52,15</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>37,89; 49,13</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>56,05; 62,42</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>67,79; 73,65</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>62,37; 68,34</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>59,73; 65,23</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>48,07; 52,58</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>58,2; 62,71</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>55,07; 59,35</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>49,46; 56,53</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,94%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>47,65%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>46,42%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>54,59%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>57,88%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>67,8%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>61,27%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,97%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>48,45%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>57,86%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>53,97%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>60,25%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>35,14; 42,79</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>44,01; 51,64</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>42,89; 50,53</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>50,73; 58,88</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>53,73; 61,4</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>63,84; 71,23</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>57,6; 64,83</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>58,68; 77,67</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>45,65; 51,14</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>55,31; 60,44</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>51,19; 56,54</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>56,25; 68,82</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>40,68%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>51,68%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>53,15%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>56,13%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>59,32%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>72,36%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>65,24%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>66,51%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>50,45%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>62,56%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>59,52%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>61,76%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>37,63; 43,82</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>48,44; 55,2</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>50,07; 56,31</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>52,5; 59,44</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>56,27; 62,35</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>69,23; 75,04</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>62,21; 68,21</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>63,62; 69,63</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>48,13; 52,64</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>60,52; 64,81</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>57,13; 61,93</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>59,58; 64,03</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>40,54%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>50,42%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>49,79%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>52,19%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>58,58%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>70,22%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,85%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,7%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>49,7%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>60,51%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>57,48%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>58,81%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>38,75; 42,26</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>48,61; 52,18</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>48,05; 51,41</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>49,13; 54,39</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>56,82; 60,16</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>68,7; 71,91</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>63,27; 66,59</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>62,83; 68,1</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>48,5; 50,86</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>59,31; 61,69</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>56,27; 58,82</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>57,12; 61,03</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>39,78%</t>
+          <t>40,81%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>51,08%</t>
+          <t>52,25%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>50,64%</t>
+          <t>50,22%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>56,72%</t>
+          <t>55,26%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>65,12%</t>
+          <t>57,26%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>70,29%</t>
+          <t>68,68%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>70,88%</t>
+          <t>67,66%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>67,85%</t>
+          <t>64,67%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>52,3%</t>
+          <t>49,01%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>60,52%</t>
+          <t>60,44%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>60,62%</t>
+          <t>58,93%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>62,97%</t>
+          <t>60,11%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>29,88; 49,14</t>
+          <t>37,11; 44,73</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>42,02; 60,72</t>
+          <t>48,22; 55,82</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>40,85; 59,05</t>
+          <t>46,47; 53,8</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>46,01; 66,49</t>
+          <t>50,86; 59,59</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>56,31; 72,97</t>
+          <t>53,56; 60,97</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>60,63; 79,39</t>
+          <t>64,7; 72,07</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>62,43; 77,97</t>
+          <t>63,89; 71,18</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>59,9; 73,93</t>
+          <t>61,57; 67,32</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>45,9; 59,23</t>
+          <t>46,32; 51,6</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>53,98; 67,24</t>
+          <t>57,74; 63,28</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>54,1; 66,77</t>
+          <t>56,27; 61,77</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>57,1; 69,45</t>
+          <t>57,31; 62,82</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>41,01%</t>
+          <t>41,33%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>52,49%</t>
+          <t>50,03%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>50,13%</t>
+          <t>48,93%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>55,11%</t>
+          <t>37,51%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>55,72%</t>
+          <t>59,22%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>68,37%</t>
+          <t>70,91%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>67,01%</t>
+          <t>65,33%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>63,52%</t>
+          <t>63,46%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>48,35%</t>
+          <t>50,31%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>60,42%</t>
+          <t>60,54%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>58,58%</t>
+          <t>57,21%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>59,47%</t>
+          <t>49,07%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>37,03; 44,61</t>
+          <t>37,87; 44,41</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>48,52; 56,99</t>
+          <t>47,24; 53,56</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>45,63; 54,35</t>
+          <t>45,86; 52,15</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>50,63; 60,13</t>
+          <t>20,18; 48,33</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>51,5; 59,53</t>
+          <t>56,05; 62,42</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>64,1; 72,25</t>
+          <t>67,79; 73,65</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>62,65; 70,51</t>
+          <t>62,37; 68,34</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>59,99; 67,02</t>
+          <t>60,4; 65,91</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>45,43; 51,34</t>
+          <t>48,07; 52,58</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>57,62; 63,49</t>
+          <t>58,2; 62,71</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>55,8; 61,8</t>
+          <t>55,07; 59,35</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>56,4; 62,09</t>
+          <t>33,95; 56,1</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>41,33%</t>
+          <t>38,94%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>50,03%</t>
+          <t>47,65%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>48,93%</t>
+          <t>46,42%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>44,86%</t>
+          <t>54,12%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>59,22%</t>
+          <t>57,88%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>70,91%</t>
+          <t>67,8%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>65,33%</t>
+          <t>61,27%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>62,78%</t>
+          <t>67,19%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>50,31%</t>
+          <t>48,45%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>60,54%</t>
+          <t>57,86%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>57,21%</t>
+          <t>53,97%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>53,9%</t>
+          <t>61,57%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>37,87; 44,41</t>
+          <t>35,14; 42,79</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>47,24; 53,56</t>
+          <t>44,01; 51,64</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>45,86; 52,15</t>
+          <t>42,89; 50,53</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>37,89; 49,13</t>
+          <t>50,02; 58,61</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>56,05; 62,42</t>
+          <t>53,73; 61,4</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>67,79; 73,65</t>
+          <t>63,84; 71,23</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>62,37; 68,34</t>
+          <t>57,6; 64,83</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>59,73; 65,23</t>
+          <t>55,96; 83,98</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>48,07; 52,58</t>
+          <t>45,65; 51,14</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>58,2; 62,71</t>
+          <t>55,31; 60,44</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>55,07; 59,35</t>
+          <t>51,19; 56,54</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>49,46; 56,53</t>
+          <t>54,83; 74,56</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>38,94%</t>
+          <t>40,68%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>47,65%</t>
+          <t>51,68%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>46,42%</t>
+          <t>53,15%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>54,59%</t>
+          <t>56,71%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>57,88%</t>
+          <t>59,32%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>67,8%</t>
+          <t>72,36%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>61,27%</t>
+          <t>65,24%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>64,97%</t>
+          <t>68,79%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>48,45%</t>
+          <t>50,45%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>57,86%</t>
+          <t>62,56%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>53,97%</t>
+          <t>59,52%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>60,25%</t>
+          <t>63,24%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>35,14; 42,79</t>
+          <t>37,63; 43,82</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>44,01; 51,64</t>
+          <t>48,44; 55,2</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>42,89; 50,53</t>
+          <t>50,07; 56,31</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>50,73; 58,88</t>
+          <t>53,14; 60,05</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>53,73; 61,4</t>
+          <t>56,27; 62,35</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>63,84; 71,23</t>
+          <t>69,23; 75,04</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>57,6; 64,83</t>
+          <t>62,21; 68,21</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>58,68; 77,67</t>
+          <t>65,25; 74,52</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>45,65; 51,14</t>
+          <t>48,13; 52,64</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>55,31; 60,44</t>
+          <t>60,52; 64,81</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>51,19; 56,54</t>
+          <t>57,13; 61,93</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>56,25; 68,82</t>
+          <t>60,72; 67,45</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>40,68%</t>
+          <t>40,54%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>51,68%</t>
+          <t>50,42%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>53,15%</t>
+          <t>49,79%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>56,13%</t>
+          <t>49,3%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>59,32%</t>
+          <t>58,58%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>72,36%</t>
+          <t>70,22%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>65,24%</t>
+          <t>64,85%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>66,51%</t>
+          <t>66,23%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>50,45%</t>
+          <t>49,7%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>62,56%</t>
+          <t>60,51%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>59,52%</t>
+          <t>57,48%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>61,76%</t>
+          <t>58,0%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>37,63; 43,82</t>
+          <t>38,75; 42,26</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>48,44; 55,2</t>
+          <t>48,61; 52,18</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>50,07; 56,31</t>
+          <t>48,05; 51,41</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>52,5; 59,44</t>
+          <t>38,2; 53,71</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>56,27; 62,35</t>
+          <t>56,82; 60,16</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>69,23; 75,04</t>
+          <t>68,7; 71,91</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>62,21; 68,21</t>
+          <t>63,27; 66,59</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>63,62; 69,63</t>
+          <t>63,28; 72,12</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>48,13; 52,64</t>
+          <t>48,5; 50,86</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>60,52; 64,81</t>
+          <t>59,31; 61,69</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>57,13; 61,93</t>
+          <t>56,27; 58,82</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>59,58; 64,03</t>
+          <t>51,85; 61,58</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>40,54%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>50,42%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>49,79%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>52,19%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>58,58%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>70,22%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>64,85%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>64,7%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>49,7%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>60,51%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>57,48%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>58,81%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>38,75; 42,26</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>48,61; 52,18</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>48,05; 51,41</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>49,13; 54,39</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>56,82; 60,16</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>68,7; 71,91</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>63,27; 66,59</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>62,83; 68,1</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>48,5; 50,86</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>59,31; 61,69</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>56,27; 58,82</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>57,12; 61,03</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P16-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>37,11; 44,73</t>
+          <t>37,33; 45,11</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>48,22; 55,82</t>
+          <t>48,55; 56,21</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>46,47; 53,8</t>
+          <t>46,3; 53,93</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>50,86; 59,59</t>
+          <t>50,83; 60,1</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>53,56; 60,97</t>
+          <t>53,38; 60,76</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>64,7; 72,07</t>
+          <t>64,99; 72,42</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>63,89; 71,18</t>
+          <t>63,81; 71,1</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>61,57; 67,32</t>
+          <t>61,37; 67,44</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>46,32; 51,6</t>
+          <t>46,21; 51,43</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>57,74; 63,28</t>
+          <t>57,72; 63,42</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>56,27; 61,77</t>
+          <t>56,0; 61,36</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>57,31; 62,82</t>
+          <t>57,31; 62,72</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>37,87; 44,41</t>
+          <t>38,15; 44,76</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>47,24; 53,56</t>
+          <t>46,77; 53,43</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>45,86; 52,15</t>
+          <t>45,52; 52,07</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>20,18; 48,33</t>
+          <t>19,78; 48,29</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>56,05; 62,42</t>
+          <t>55,94; 62,38</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>67,79; 73,65</t>
+          <t>68,16; 73,95</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>62,37; 68,34</t>
+          <t>62,15; 68,02</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>60,4; 65,91</t>
+          <t>60,78; 66,13</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>48,07; 52,58</t>
+          <t>48,07; 52,8</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>58,2; 62,71</t>
+          <t>58,24; 62,7</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>55,07; 59,35</t>
+          <t>54,85; 59,4</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>33,95; 56,1</t>
+          <t>33,15; 56,11</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>35,14; 42,79</t>
+          <t>35,23; 43,08</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>44,01; 51,64</t>
+          <t>43,93; 51,67</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>42,89; 50,53</t>
+          <t>42,78; 50,62</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>50,02; 58,61</t>
+          <t>49,35; 58,26</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>53,73; 61,4</t>
+          <t>53,99; 62,28</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>63,84; 71,23</t>
+          <t>64,26; 71,34</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>57,6; 64,83</t>
+          <t>57,42; 64,77</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>55,96; 83,98</t>
+          <t>55,81; 82,66</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>45,65; 51,14</t>
+          <t>45,68; 51,17</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>55,31; 60,44</t>
+          <t>55,17; 60,5</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>51,19; 56,54</t>
+          <t>51,41; 56,49</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>54,83; 74,56</t>
+          <t>55,12; 75,75</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>37,63; 43,82</t>
+          <t>37,64; 43,49</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>48,44; 55,2</t>
+          <t>48,49; 54,99</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>50,07; 56,31</t>
+          <t>49,68; 56,26</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>53,14; 60,05</t>
+          <t>53,01; 60,41</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>56,27; 62,35</t>
+          <t>56,37; 62,68</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>69,23; 75,04</t>
+          <t>69,69; 75,17</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>62,21; 68,21</t>
+          <t>61,99; 68,28</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>65,25; 74,52</t>
+          <t>65,32; 75,3</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>48,13; 52,64</t>
+          <t>48,43; 52,81</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>60,52; 64,81</t>
+          <t>60,24; 64,85</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>57,13; 61,93</t>
+          <t>57,34; 61,88</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>60,72; 67,45</t>
+          <t>60,68; 68,3</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>38,75; 42,26</t>
+          <t>38,87; 42,28</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>48,61; 52,18</t>
+          <t>48,74; 52,14</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>48,05; 51,41</t>
+          <t>48,13; 51,57</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>38,2; 53,71</t>
+          <t>37,87; 53,75</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>56,82; 60,16</t>
+          <t>56,74; 60,35</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>68,7; 71,91</t>
+          <t>68,64; 71,83</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>63,27; 66,59</t>
+          <t>62,99; 66,46</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>63,28; 72,12</t>
+          <t>63,35; 73,24</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>48,5; 50,86</t>
+          <t>48,45; 50,88</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>59,31; 61,69</t>
+          <t>59,2; 61,66</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>56,27; 58,82</t>
+          <t>56,35; 58,79</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>51,85; 61,58</t>
+          <t>51,05; 61,46</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha utilizado algún tipo de medicamento en las últimas dos semanas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>285</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>343</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>330</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>453</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>402</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>448</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>440</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>856</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>687</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>791</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>770</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1309</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>282786</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>366604</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>338853</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>351154</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>394160</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>478725</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>455246</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>436992</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>676947</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>845329</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>794099</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>788146</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>258725; 312582</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>340612; 394353</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>312436; 363926</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>323015; 381888</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>367467; 418247</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>452992; 504819</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>429341; 478379</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>414720; 455743</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>638373; 710451</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>807281; 886986</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>754722; 826914</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>751465; 822403</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>381</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>466</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>467</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>513</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>536</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>663</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>622</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>1036</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>917</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>1129</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>1089</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>1549</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>397525</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>509319</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>500266</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>447481</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>573464</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>731230</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>681344</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>608031</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>970989</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>1240549</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>1181610</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>1055512</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>366905; 430503</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>476081; 543865</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>465433; 532391</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>235913; 576078</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>541685; 604069</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>702843; 762490</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>648188; 709344</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>582375; 633618</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>927908; 1019211</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>1193450; 1284857</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>1132895; 1226720</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>713035; 1206982</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>256</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>326</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>402</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>404</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>474</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>439</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>683</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>660</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>794</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>765</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>1085</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>264225</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>360487</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>352576</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>381360</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>395785</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>526357</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>481015</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>627152</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>660010</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>886844</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>833591</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>1008512</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>239071; 292291</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>332337; 390934</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>324903; 384520</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>347733; 410570</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>369204; 425884</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>498852; 553797</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>450784; 508444</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>520928; 771556</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>622299; 697164</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>845721; 927334</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>794008; 872559</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>902956; 1240778</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>413</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>457</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>498</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>620</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>591</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>726</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1092</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1004</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>1183</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>1108</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>1712</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>383326</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>488813</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>498294</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>525632</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>616065</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>760458</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>681012</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>750777</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>999392</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>1249271</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>1179306</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>1276409</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>354674; 409779</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>458686; 520141</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>465759; 527515</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>491316; 559901</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>585489; 651019</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>732376; 790027</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>647079; 712726</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>712926; 821802</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>959409; 1046016</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>1202996; 1295036</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>1136024; 1226120</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>1224552; 1378389</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>1335</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>1586</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>1621</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>1988</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>1933</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>2311</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>2111</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>3667</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>3268</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>3897</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>3732</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>5655</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>1327863</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>1725223</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>1689989</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>1705627</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>1979475</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>2496770</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>2298617</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>2422952</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>3307338</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>4221993</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>3988605</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>4128578</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>1273254; 1384974</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1667748; 1784240</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>1633568; 1750301</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>1310152; 1859567</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>1917351; 2039467</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>2440594; 2553846</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>2232652; 2355591</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>2317771; 2679727</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>3224177; 3385897</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>4130658; 4301986</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>3910385; 4079246</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>3634249; 4375000</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>